--- a/DOM_Banner/output/dept0713/Lawrence J Mandarino_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Lawrence J Mandarino_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Health Sciences, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307974510</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Fuel Selection in Skeletal Muscle Exercising at Low Intensity; Reliance on Carbohydrate in Very Sedentary Individuals</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Metabolic Syndrome and Related Disorders</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Mary Ann Liebert, Inc.</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1089/met.2022.0062</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36318809</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1089/met.2022.0062</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Endocrinology, Department of Medicine, and Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona College of Medicine and University of Arizona Health Sciences, Tucson, AZ 85724, USA; Division of Endocrinology, Department of Medicine, and Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona College of Medicine and University of Arizona Health Sciences, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321506988</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Can non-equilibrium thermodynamics explain skeletal muscle insulin resistance due to low mitochondrial content?</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>The Lancet Diabetes &amp; Endocrinology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2213-8587(23)00032-3</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36822742</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2213-8587(23)00032-3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>School of Nutritional Sciences and Wellness, University of Arizona, Tucson, AZ 85721, USA; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ 85724, USA; Division of Endocrinology, Metabolism and Diabetes, Mayo Clinic Arizona, Scottsdale, AZ 85259, USA; Center for Health Promotion and Disease Prevention, Arizona State University, Phoenix, AZ 85004, USA; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ 85724, USA; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367316410</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Association of Vitamin D Receptor Gene Polymorphisms with Cardiometabolic Phenotypes in Hispanics: A Life Course Approach</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Nutrients</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/nu15092118</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37432296</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/nu15092118</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Neurology, University of Arizona, Tucson, AZ; Physiological Sciences Graduate Program, University of Arizona, Tucson, AZ; Physiology Undergraduate Program, University of Arizona, Tucson, AZ; Physiological Sciences Graduate Program, University of Arizona, Tucson, AZ; Department of Medicine, University of Arizona, Tucson, AZ; Department of Medicine, University of Arizona, Tucson, AZ; Statistical Consulting Lab, BIO5 Institute, University of Arizona, Tucson, AZ; Statistical Consulting Lab, BIO5 Institute, University of Arizona, Tucson, AZ; Statistical Consulting Lab, BIO5 Institute, University of Arizona, Tucson, AZ; Physiological Sciences Graduate Program, University of Arizona, Tucson, AZ; Departments of Physiology and Biomedical Engineering, University of Arizona, Tucson, AZ; Department of Neurology, University of Arizona, Tucson, AZ; Evelyn F McKnight Brain Institute and BIO5 Institute, University of Arizona, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4384023243</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Parallel neurodegenerative phenotypes in sporadic Parkinson’s disease fibroblasts and midbrain dopamine neurons</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Progress in Neurobiology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.pneurobio.2023.102501</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37451330</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.pneurobio.2023.102501</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Endodontics, School of Dentistry, The University of Texas Health Science Center at San Antonio, San Antonio, TX 78229, USA; Department of Human Genetics, School of Medicine, The University of Texas Rio Grande Valley, Edinburg, TX 78539, USA; Center for Disparities in Diabetes, Obesity and Metabolism, Division of Endocrinology, Diabetes and Metabolism, Department of Medicine, The University of Arizona, Tucson, AZ 85724, USA; Department of Human Genetics, School of Medicine, The University of Texas Rio Grande Valley, Edinburg, TX 78539, USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4317538695</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Triterpenoid CDDO-EA inhibits lipopolysaccharide-induced inflammatory responses in skeletal muscle cells through suppression of NF-κB</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Experimental Biology and Medicine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>SAGE Publishing</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177/15353702221139188</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36661241</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177/15353702221139188</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4320179215</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Parallel Neurodegenerative Phenotypes in Sporadic Parkinson’s Disease Fibroblasts and Midbrain Dopamine Neurons</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-02-12</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.02.10.527867</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36798207</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.02.10.527867</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Department of Physiology, The University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Department of Medical Imaging, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383556481</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Nonequilibrium thermodynamics and mitochondrial protein content predict insulin sensitivity and fuel selection during exercise in human skeletal muscle</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-07-07</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Frontiers in Physiology</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fphys.2023.1208186</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37485059</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fphys.2023.1208186</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385307501</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>P10-006-23 Impact of FADS and ELOVL2/5 Genetic Variation on Fatty Acid and Cardiometabolic Endpoints in Mexican American Individuals</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Current Developments in Nutrition</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.cdnut.2023.101673</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.cdnut.2023.101673</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Lawrence J Mandarino_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Lawrence J Mandarino_2023.xlsx
@@ -534,42 +534,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lawrence J. Mandarino, Wayne T. Willis</t>
+          <t>Phoebe Fang-Mei Chang, Daniel Acevedo, Lawrence J. Mandarino, Sara M. Reyna</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Division of Endocrinology, Department of Medicine, and Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona College of Medicine and University of Arizona Health Sciences, Tucson, AZ 85724, USA; Division of Endocrinology, Department of Medicine, and Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona College of Medicine and University of Arizona Health Sciences, Tucson, AZ 85724, USA</t>
+          <t>Department of Endodontics, School of Dentistry, The University of Texas Health Science Center at San Antonio, San Antonio, TX 78229, USA; Department of Human Genetics, School of Medicine, The University of Texas Rio Grande Valley, Edinburg, TX 78539, USA; Center for Disparities in Diabetes, Obesity and Metabolism, Division of Endocrinology, Diabetes and Metabolism, Department of Medicine, The University of Arizona, Tucson, AZ 85724, USA; Department of Human Genetics, School of Medicine, The University of Texas Rio Grande Valley, Edinburg, TX 78539, USA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4321506988</t>
+          <t>https://openalex.org/W4317538695</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Can non-equilibrium thermodynamics explain skeletal muscle insulin resistance due to low mitochondrial content?</t>
+          <t>Triterpenoid CDDO-EA inhibits lipopolysaccharide-induced inflammatory responses in skeletal muscle cells through suppression of NF-κB</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>The Lancet Diabetes &amp; Endocrinology</t>
+          <t>Experimental Biology and Medicine</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>SAGE Publishing</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s2213-8587(23)00032-3</t>
+          <t>https://doi.org/10.1177/15353702221139188</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,12 +604,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36822742</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36661241</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s2213-8587(23)00032-3</t>
+          <t>https://doi.org/10.1177/15353702221139188</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -795,42 +795,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Phoebe Fang-Mei Chang, Daniel Acevedo, Lawrence J. Mandarino, Sara M. Reyna</t>
+          <t>Lawrence J. Mandarino, Wayne T. Willis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Department of Endodontics, School of Dentistry, The University of Texas Health Science Center at San Antonio, San Antonio, TX 78229, USA; Department of Human Genetics, School of Medicine, The University of Texas Rio Grande Valley, Edinburg, TX 78539, USA; Center for Disparities in Diabetes, Obesity and Metabolism, Division of Endocrinology, Diabetes and Metabolism, Department of Medicine, The University of Arizona, Tucson, AZ 85724, USA; Department of Human Genetics, School of Medicine, The University of Texas Rio Grande Valley, Edinburg, TX 78539, USA</t>
+          <t>Division of Endocrinology, Department of Medicine, and Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona College of Medicine and University of Arizona Health Sciences, Tucson, AZ 85724, USA; Division of Endocrinology, Department of Medicine, and Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona College of Medicine and University of Arizona Health Sciences, Tucson, AZ 85724, USA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4317538695</t>
+          <t>https://openalex.org/W4321506988</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Triterpenoid CDDO-EA inhibits lipopolysaccharide-induced inflammatory responses in skeletal muscle cells through suppression of NF-κB</t>
+          <t>Can non-equilibrium thermodynamics explain skeletal muscle insulin resistance due to low mitochondrial content?</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Experimental Biology and Medicine</t>
+          <t>The Lancet Diabetes &amp; Endocrinology</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SAGE Publishing</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/15353702221139188</t>
+          <t>https://doi.org/10.1016/s2213-8587(23)00032-3</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36661241</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36822742</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/15353702221139188</t>
+          <t>https://doi.org/10.1016/s2213-8587(23)00032-3</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -882,57 +882,57 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mandi J. Corenblum, Aiden McRobbie-Johnson, Emma Carruth, Kelsey Bernard, Moulun Luo, Lawrence J. Mandarino, Sayeh Peterson, Dean Billheimer, Timothy Maley, Erika D. Eggers, Lalitha Madhavan</t>
+          <t>Sarah Blomquist, J.C. Albrecht, Brian Hallmark, Luis Garcı́a, Lawrence J. Mandarino, Dawn K. Coletta, Floyd H. Chilton</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4320179215</t>
+          <t>https://openalex.org/W4385307501</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Parallel Neurodegenerative Phenotypes in Sporadic Parkinson’s Disease Fibroblasts and Midbrain Dopamine Neurons</t>
+          <t>P10-006-23 Impact of FADS and ELOVL2/5 Genetic Variation on Fatty Acid and Cardiometabolic Endpoints in Mexican American Individuals</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>Current Developments in Nutrition</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.02.10.527867</t>
+          <t>https://doi.org/10.1016/j.cdnut.2023.101673</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36798207</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.02.10.527867</t>
+          <t>https://doi.org/10.1016/j.cdnut.2023.101673</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -969,57 +969,57 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Rocio Zapata Bustos, Dawn K. Coletta, Jean‐Philippe Galons, Lisa B. Davidson, Paul Langlais, Janet L. Funk, Wayne T. Willis, Lawrence J. Mandarino</t>
+          <t>Mandi J. Corenblum, Aiden McRobbie-Johnson, Emma Carruth, Kelsey Bernard, Moulun Luo, Lawrence J. Mandarino, Sayeh Peterson, Dean Billheimer, Timothy Maley, Erika D. Eggers, Lalitha Madhavan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Department of Physiology, The University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Department of Medical Imaging, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States</t>
+          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383556481</t>
+          <t>https://openalex.org/W4320179215</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nonequilibrium thermodynamics and mitochondrial protein content predict insulin sensitivity and fuel selection during exercise in human skeletal muscle</t>
+          <t>Parallel Neurodegenerative Phenotypes in Sporadic Parkinson’s Disease Fibroblasts and Midbrain Dopamine Neurons</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2023-02-12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Frontiers in Physiology</t>
+          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fphys.2023.1208186</t>
+          <t>https://doi.org/10.1101/2023.02.10.527867</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37485059</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36798207</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fphys.2023.1208186</t>
+          <t>https://doi.org/10.1101/2023.02.10.527867</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1056,42 +1056,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sarah Blomquist, J.C. Albrecht, Brian Hallmark, Luis Garcı́a, Lawrence J. Mandarino, Dawn K. Coletta, Floyd H. Chilton</t>
+          <t>Rocio Zapata Bustos, Dawn K. Coletta, Jean‐Philippe Galons, Lisa Davidson, Paul Langlais, Janet L. Funk, Wayne T. Willis, Lawrence J. Mandarino</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; </t>
+          <t>Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Department of Physiology, The University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Department of Medical Imaging, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385307501</t>
+          <t>https://openalex.org/W4383556481</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>P10-006-23 Impact of FADS and ELOVL2/5 Genetic Variation on Fatty Acid and Cardiometabolic Endpoints in Mexican American Individuals</t>
+          <t>Nonequilibrium thermodynamics and mitochondrial protein content predict insulin sensitivity and fuel selection during exercise in human skeletal muscle</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Current Developments in Nutrition</t>
+          <t>Frontiers in Physiology</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.cdnut.2023.101673</t>
+          <t>https://doi.org/10.3389/fphys.2023.1208186</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37485059</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.cdnut.2023.101673</t>
+          <t>https://doi.org/10.3389/fphys.2023.1208186</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
